--- a/tests/artifact/data/Mobile-ManageUsers.data.xlsx
+++ b/tests/artifact/data/Mobile-ManageUsers.data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="159">
   <si>
     <t>login.clickDefault</t>
   </si>
@@ -485,6 +485,12 @@
   </si>
   <si>
     <t>//div[@class='toast-body'][contains(text(),'User deletion is not allowed')]</t>
+  </si>
+  <si>
+    <t>ArrUserRole</t>
+  </si>
+  <si>
+    <t>Admin,Manager,Operator,Internal Auditor,Godown In Charge</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1156,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1167,18 +1173,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1803,10 +1797,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="B36" sqref="$A36:$XFD36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
@@ -1888,601 +1882,601 @@
       </c>
     </row>
     <row r="10" ht="16" spans="1:3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" ht="16" spans="1:3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" ht="16" spans="1:3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" ht="16" spans="1:3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" ht="16" spans="1:3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" ht="16" spans="1:3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" ht="16" spans="1:3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" ht="16" spans="1:3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" ht="16" spans="1:3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" ht="16" spans="1:3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" ht="16" spans="1:3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" ht="16" spans="1:3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" ht="16" spans="1:3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" ht="16" spans="1:3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" ht="16" spans="1:3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" ht="16" spans="1:3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="7"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" ht="16" spans="1:3">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" ht="16" spans="1:3">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" ht="16" spans="1:3">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" ht="16" spans="1:3">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="7"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" ht="16" spans="1:3">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" ht="16" spans="1:3">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" ht="16" spans="1:3">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" ht="16" spans="1:3">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" ht="16" spans="1:3">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" ht="16" spans="1:3">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="7"/>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" ht="16" spans="1:3">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="7"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" ht="16" spans="1:3">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="7"/>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" ht="16" spans="1:3">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" ht="16" spans="1:3">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="7"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" ht="16" spans="1:3">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="7"/>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" ht="16" spans="1:3">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="7"/>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" ht="16" spans="1:3">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="7"/>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" ht="16" spans="1:3">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="7"/>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" ht="16" spans="1:3">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="7"/>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" ht="16" spans="1:3">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="7"/>
+      <c r="C46" s="1"/>
     </row>
     <row r="47" ht="16" spans="1:3">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="7"/>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" ht="16" spans="1:3">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="7"/>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" ht="16" spans="1:3">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="7"/>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" ht="16" spans="1:3">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="7"/>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" ht="16" spans="1:3">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="7"/>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" ht="16" spans="1:3">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="7"/>
+      <c r="C52" s="1"/>
     </row>
     <row r="53" ht="16" spans="1:3">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="7"/>
+      <c r="C53" s="1"/>
     </row>
     <row r="54" ht="16" spans="1:3">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C54" s="7"/>
+      <c r="C54" s="1"/>
     </row>
     <row r="55" ht="16" spans="1:3">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="7"/>
+      <c r="C55" s="1"/>
     </row>
     <row r="56" ht="16" spans="1:3">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="7"/>
+      <c r="C56" s="1"/>
     </row>
     <row r="57" ht="16" spans="1:3">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="7"/>
+      <c r="C57" s="1"/>
     </row>
     <row r="58" ht="16" spans="1:3">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C58" s="7"/>
+      <c r="C58" s="1"/>
     </row>
     <row r="59" ht="16" spans="1:3">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="7"/>
+      <c r="C59" s="1"/>
     </row>
     <row r="60" ht="16" spans="1:3">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C60" s="7"/>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" ht="16" spans="1:3">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C61" s="7"/>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" ht="16" spans="1:3">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="7"/>
+      <c r="C62" s="1"/>
     </row>
     <row r="63" ht="16" spans="1:3">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C63" s="7"/>
+      <c r="C63" s="1"/>
     </row>
     <row r="64" ht="16" spans="1:3">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C64" s="7"/>
+      <c r="C64" s="1"/>
     </row>
     <row r="65" ht="16" spans="1:3">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C65" s="7"/>
+      <c r="C65" s="1"/>
     </row>
     <row r="66" ht="16" spans="1:3">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C66" s="7"/>
+      <c r="C66" s="1"/>
     </row>
     <row r="67" ht="16" spans="1:3">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C67" s="7"/>
+      <c r="C67" s="1"/>
     </row>
     <row r="68" ht="16" spans="1:3">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C68" s="7"/>
+      <c r="C68" s="1"/>
     </row>
     <row r="69" ht="16" spans="1:3">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C69" s="7"/>
+      <c r="C69" s="1"/>
     </row>
     <row r="70" ht="16" spans="1:3">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="7"/>
+      <c r="C70" s="1"/>
     </row>
     <row r="71" ht="16" spans="1:3">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C71" s="7"/>
+      <c r="C71" s="1"/>
     </row>
     <row r="72" ht="16" spans="1:3">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C72" s="7"/>
+      <c r="C72" s="1"/>
     </row>
     <row r="73" ht="16" spans="1:3">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C73" s="7"/>
+      <c r="C73" s="1"/>
     </row>
     <row r="74" ht="16" spans="1:3">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C74" s="7"/>
+      <c r="C74" s="1"/>
     </row>
     <row r="75" ht="16" spans="1:3">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C75" s="7"/>
+      <c r="C75" s="1"/>
     </row>
     <row r="76" ht="16" spans="1:2">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B76" t="s">
@@ -2490,7 +2484,7 @@
       </c>
     </row>
     <row r="77" ht="16" spans="1:2">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="5" t="s">
         <v>140</v>
       </c>
       <c r="B77" t="s">
@@ -2498,7 +2492,7 @@
       </c>
     </row>
     <row r="78" ht="16" spans="1:2">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B78" t="s">
@@ -2506,7 +2500,7 @@
       </c>
     </row>
     <row r="79" ht="16" spans="1:2">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B79" t="s">
@@ -2514,7 +2508,7 @@
       </c>
     </row>
     <row r="80" ht="16" spans="1:2">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B80" t="s">
@@ -2522,7 +2516,7 @@
       </c>
     </row>
     <row r="81" ht="16" spans="1:2">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B81" t="s">
@@ -2530,23 +2524,23 @@
       </c>
     </row>
     <row r="82" ht="16" spans="1:2">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="83" ht="16" spans="1:2">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="84" ht="16" spans="1:2">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B84" t="s">
@@ -2554,11 +2548,19 @@
       </c>
     </row>
     <row r="85" ht="16" spans="1:2">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B85" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/tests/artifact/data/Mobile-ManageUsers.data.xlsx
+++ b/tests/artifact/data/Mobile-ManageUsers.data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="161">
   <si>
     <t>login.clickDefault</t>
   </si>
@@ -487,10 +487,16 @@
     <t>//div[@class='toast-body'][contains(text(),'User deletion is not allowed')]</t>
   </si>
   <si>
-    <t>ArrUserRole</t>
+    <t>userrole</t>
   </si>
   <si>
     <t>Admin,Manager,Operator,Internal Auditor,Godown In Charge</t>
+  </si>
+  <si>
+    <t>NewUser.successmessage</t>
+  </si>
+  <si>
+    <t>//div[@class='toast-body'][contains(text(),'% has been created and invited Successfully.')]</t>
   </si>
 </sst>
 </file>
@@ -1799,8 +1805,8 @@
   <sheetPr/>
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B73" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
@@ -1881,432 +1887,432 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="16" spans="1:3">
+    <row r="10" ht="16" customHeight="1" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" ht="16" customHeight="1" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
+    <row r="11" ht="16" spans="1:3">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" ht="16" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" ht="16" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" ht="16" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" ht="16" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" ht="16" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" ht="16" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" ht="16" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" ht="16" spans="1:3">
       <c r="A19" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" ht="16" spans="1:3">
       <c r="A20" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" ht="16" spans="1:3">
       <c r="A21" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1"/>
     </row>
     <row r="22" ht="16" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1"/>
     </row>
     <row r="23" ht="16" spans="1:3">
       <c r="A23" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1"/>
     </row>
     <row r="24" ht="16" spans="1:3">
       <c r="A24" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" ht="16" spans="1:3">
       <c r="A25" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" ht="16" spans="1:3">
       <c r="A26" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C26" s="1"/>
     </row>
     <row r="27" ht="16" spans="1:3">
       <c r="A27" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C27" s="1"/>
     </row>
     <row r="28" ht="16" spans="1:3">
       <c r="A28" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" ht="16" spans="1:3">
       <c r="A29" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" ht="16" spans="1:3">
       <c r="A30" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" ht="16" spans="1:3">
       <c r="A31" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C31" s="1"/>
     </row>
     <row r="32" ht="16" spans="1:3">
       <c r="A32" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C32" s="1"/>
     </row>
     <row r="33" ht="16" spans="1:3">
       <c r="A33" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C33" s="1"/>
     </row>
     <row r="34" ht="16" spans="1:3">
       <c r="A34" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C34" s="1"/>
     </row>
     <row r="35" ht="16" spans="1:3">
       <c r="A35" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" ht="16" spans="1:3">
       <c r="A36" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C36" s="1"/>
     </row>
     <row r="37" ht="16" spans="1:3">
       <c r="A37" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C37" s="1"/>
     </row>
     <row r="38" ht="16" spans="1:3">
       <c r="A38" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C38" s="1"/>
     </row>
     <row r="39" ht="16" spans="1:3">
       <c r="A39" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" ht="16" spans="1:3">
       <c r="A40" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" ht="16" spans="1:3">
       <c r="A41" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="C41" s="1"/>
     </row>
     <row r="42" ht="16" spans="1:3">
       <c r="A42" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C42" s="1"/>
     </row>
     <row r="43" ht="16" spans="1:3">
       <c r="A43" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C43" s="1"/>
     </row>
     <row r="44" ht="16" spans="1:3">
       <c r="A44" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C44" s="1"/>
     </row>
     <row r="45" ht="16" spans="1:3">
       <c r="A45" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C45" s="1"/>
     </row>
     <row r="46" ht="16" spans="1:3">
       <c r="A46" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C46" s="1"/>
     </row>
     <row r="47" ht="16" spans="1:3">
       <c r="A47" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C47" s="1"/>
     </row>
     <row r="48" ht="16" spans="1:3">
       <c r="A48" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1"/>
     </row>
     <row r="49" ht="16" spans="1:3">
       <c r="A49" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C49" s="1"/>
     </row>
     <row r="50" ht="16" spans="1:3">
       <c r="A50" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C50" s="1"/>
     </row>
     <row r="51" ht="16" spans="1:3">
       <c r="A51" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C51" s="1"/>
     </row>
     <row r="52" ht="16" spans="1:3">
       <c r="A52" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C52" s="1"/>
     </row>
     <row r="53" ht="16" spans="1:3">
       <c r="A53" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C53" s="1"/>
     </row>
     <row r="54" ht="16" spans="1:3">
       <c r="A54" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C54" s="1"/>
     </row>
     <row r="55" ht="16" spans="1:3">
       <c r="A55" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C55" s="1"/>
     </row>
     <row r="56" ht="16" spans="1:3">
       <c r="A56" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="C56" s="1"/>
     </row>
     <row r="57" ht="16" spans="1:3">
       <c r="A57" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>107</v>
@@ -2315,572 +2321,599 @@
     </row>
     <row r="58" ht="16" spans="1:3">
       <c r="A58" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="C58" s="1"/>
     </row>
     <row r="59" ht="16" spans="1:3">
       <c r="A59" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C59" s="1"/>
     </row>
     <row r="60" ht="16" spans="1:3">
       <c r="A60" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C60" s="1"/>
     </row>
     <row r="61" ht="16" spans="1:3">
       <c r="A61" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C61" s="1"/>
     </row>
     <row r="62" ht="16" spans="1:3">
       <c r="A62" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C62" s="1"/>
     </row>
     <row r="63" ht="16" spans="1:3">
       <c r="A63" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C63" s="1"/>
     </row>
     <row r="64" ht="16" spans="1:3">
       <c r="A64" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C64" s="1"/>
     </row>
     <row r="65" ht="16" spans="1:3">
       <c r="A65" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C65" s="1"/>
     </row>
     <row r="66" ht="16" spans="1:3">
       <c r="A66" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C66" s="1"/>
     </row>
     <row r="67" ht="16" spans="1:3">
       <c r="A67" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C67" s="1"/>
     </row>
     <row r="68" ht="16" spans="1:3">
       <c r="A68" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C68" s="1"/>
     </row>
     <row r="69" ht="16" spans="1:3">
       <c r="A69" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="C69" s="1"/>
     </row>
     <row r="70" ht="16" spans="1:3">
       <c r="A70" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C70" s="1"/>
     </row>
     <row r="71" ht="16" spans="1:3">
       <c r="A71" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C71" s="1"/>
     </row>
     <row r="72" ht="16" spans="1:3">
       <c r="A72" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C72" s="1"/>
     </row>
     <row r="73" ht="16" spans="1:3">
       <c r="A73" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="C73" s="1"/>
     </row>
     <row r="74" ht="16" spans="1:3">
       <c r="A74" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" ht="16" spans="1:3">
+    <row r="75" ht="16" spans="1:2">
       <c r="A75" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C75" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="B75" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="76" ht="16" spans="1:2">
       <c r="A76" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B76" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" ht="16" spans="1:2">
       <c r="A77" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" ht="16" spans="1:2">
       <c r="A78" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B78" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" ht="16" spans="1:2">
       <c r="A79" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B79" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" ht="16" spans="1:2">
       <c r="A80" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B80" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" ht="16" spans="1:2">
       <c r="A81" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B81" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="82" ht="16" spans="1:2">
       <c r="A82" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" ht="16" spans="1:2">
       <c r="A83" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="B83" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="84" ht="16" spans="1:2">
       <c r="A84" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B84" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" ht="16" spans="1:2">
       <c r="A85" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B85" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" ht="16" spans="1:2">
+      <c r="A86" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="B86" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A6">
-    <cfRule type="beginsWith" dxfId="0" priority="37" stopIfTrue="1" operator="equal" text="//">
+    <cfRule type="beginsWith" dxfId="0" priority="45" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A6,LEN("//"))="//"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="1" priority="46" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A6,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="2" priority="47" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A6,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="40" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="48" stopIfTrue="1">
       <formula>LEN(TRIM(A6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="4" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="29" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="30">
       <formula>LEN(TRIM(B6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:E6">
+    <cfRule type="expression" dxfId="4" priority="49" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="50">
+      <formula>LEN(TRIM(C6))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A9,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A9,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A9,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="34" stopIfTrue="1">
+      <formula>LEN(TRIM(A9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:E9">
+    <cfRule type="expression" dxfId="4" priority="35" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="36">
+      <formula>LEN(TRIM(B9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="beginsWith" dxfId="0" priority="113" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A10,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="114" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A10,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="115" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A10,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="116" stopIfTrue="1">
+      <formula>LEN(TRIM(A10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="expression" dxfId="4" priority="117" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="118">
+      <formula>LEN(TRIM(B10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75">
+    <cfRule type="beginsWith" dxfId="0" priority="67" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A75,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="68" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A75,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="69" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A75,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="70" stopIfTrue="1">
+      <formula>LEN(TRIM(A75))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="beginsWith" dxfId="0" priority="63" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A76,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="64" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A76,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="65" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A76,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="66" stopIfTrue="1">
+      <formula>LEN(TRIM(A76))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77">
+    <cfRule type="beginsWith" dxfId="0" priority="59" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A77,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="60" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A77,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="61" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A77,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="62" stopIfTrue="1">
+      <formula>LEN(TRIM(A77))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80">
+    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A80,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A80,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A80,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="16" stopIfTrue="1">
+      <formula>LEN(TRIM(A80))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85">
+    <cfRule type="beginsWith" dxfId="0" priority="5" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A85,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="6" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A85,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A85,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="8" stopIfTrue="1">
+      <formula>LEN(TRIM(A85))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A86">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>LEN(TRIM(A86))&gt;0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A86,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A86,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A86,LEN("//"))="//"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A3">
+    <cfRule type="beginsWith" dxfId="0" priority="21" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A1,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="22" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="23" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="24" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A5">
+    <cfRule type="beginsWith" dxfId="0" priority="51" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A4,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="52" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A4,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="53" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A4,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="54" stopIfTrue="1">
+      <formula>LEN(TRIM(A4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:A8">
+    <cfRule type="beginsWith" dxfId="0" priority="37" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A7,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A7,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A7,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="40" stopIfTrue="1">
+      <formula>LEN(TRIM(A7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:A28">
+    <cfRule type="beginsWith" dxfId="0" priority="95" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A24,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="96" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A24,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="97" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A24,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="98" stopIfTrue="1">
+      <formula>LEN(TRIM(A24))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:A33">
+    <cfRule type="beginsWith" dxfId="0" priority="89" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A30,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="90" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A30,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="91" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A30,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="92" stopIfTrue="1">
+      <formula>LEN(TRIM(A30))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78:A79">
+    <cfRule type="beginsWith" dxfId="0" priority="17" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A78,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="18" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A78,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="19" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A78,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="20" stopIfTrue="1">
+      <formula>LEN(TRIM(A78))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81:A84">
+    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A81,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="10" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A81,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="11" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A81,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="12" stopIfTrue="1">
+      <formula>LEN(TRIM(A81))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="expression" dxfId="4" priority="25" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="26">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B5">
+    <cfRule type="expression" dxfId="4" priority="55" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="56">
+      <formula>LEN(TRIM(B4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:B8">
     <cfRule type="expression" dxfId="4" priority="41" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="5" priority="42">
-      <formula>LEN(TRIM(C6))&gt;0</formula>
+      <formula>LEN(TRIM(B7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="beginsWith" dxfId="0" priority="23" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A9,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="24" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A9,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="25" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A9,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="26" stopIfTrue="1">
-      <formula>LEN(TRIM(A9))&gt;0</formula>
+  <conditionalFormatting sqref="B24:B28">
+    <cfRule type="expression" dxfId="4" priority="99" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="100">
+      <formula>LEN(TRIM(B24))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:E9">
+  <conditionalFormatting sqref="B30:B33">
+    <cfRule type="expression" dxfId="4" priority="93" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="94">
+      <formula>LEN(TRIM(B30))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:E3">
     <cfRule type="expression" dxfId="4" priority="27" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="5" priority="28">
-      <formula>LEN(TRIM(B9))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="beginsWith" dxfId="0" priority="105" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A11,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="106" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A11,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="107" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A11,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="108" stopIfTrue="1">
-      <formula>LEN(TRIM(A11))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="4" priority="109" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="110">
-      <formula>LEN(TRIM(B11))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
-    <cfRule type="beginsWith" dxfId="0" priority="59" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A76,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="60" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A76,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="61" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A76,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="62" stopIfTrue="1">
-      <formula>LEN(TRIM(A76))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="beginsWith" dxfId="0" priority="55" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A77,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A77,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="57" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A77,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="58" stopIfTrue="1">
-      <formula>LEN(TRIM(A77))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
-    <cfRule type="beginsWith" dxfId="0" priority="51" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A78,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="52" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A78,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="53" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A78,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="54" stopIfTrue="1">
-      <formula>LEN(TRIM(A78))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81">
-    <cfRule type="beginsWith" dxfId="0" priority="5" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A81,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="6" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A81,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A81,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="8" stopIfTrue="1">
-      <formula>LEN(TRIM(A81))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A3">
-    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A1,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="16" stopIfTrue="1">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A5">
-    <cfRule type="beginsWith" dxfId="0" priority="43" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A4,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A4,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="45" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A4,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="46" stopIfTrue="1">
-      <formula>LEN(TRIM(A4))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:A8">
-    <cfRule type="beginsWith" dxfId="0" priority="29" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A7,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="30" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A7,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="31" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A7,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="32" stopIfTrue="1">
-      <formula>LEN(TRIM(A7))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A29">
-    <cfRule type="beginsWith" dxfId="0" priority="87" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A25,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="88" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A25,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="89" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A25,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="90" stopIfTrue="1">
-      <formula>LEN(TRIM(A25))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:A34">
-    <cfRule type="beginsWith" dxfId="0" priority="81" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A31,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="82" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A31,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="83" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A31,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="84" stopIfTrue="1">
-      <formula>LEN(TRIM(A31))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A79:A80">
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A79,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="10" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A79,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="11" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A79,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="12" stopIfTrue="1">
-      <formula>LEN(TRIM(A79))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82:A85">
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A82,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A82,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A82,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4" stopIfTrue="1">
-      <formula>LEN(TRIM(A82))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="expression" dxfId="4" priority="17" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="18">
-      <formula>LEN(TRIM(B1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B5">
-    <cfRule type="expression" dxfId="4" priority="47" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="48">
-      <formula>LEN(TRIM(B4))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B8">
-    <cfRule type="expression" dxfId="4" priority="33" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="34">
-      <formula>LEN(TRIM(B7))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:B29">
-    <cfRule type="expression" dxfId="4" priority="91" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="92">
-      <formula>LEN(TRIM(B25))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31:B34">
-    <cfRule type="expression" dxfId="4" priority="85" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="86">
-      <formula>LEN(TRIM(B31))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:E3">
-    <cfRule type="expression" dxfId="4" priority="19" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="20">
       <formula>LEN(TRIM(C1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:E5">
-    <cfRule type="expression" dxfId="4" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="57" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="50">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="58">
       <formula>LEN(TRIM(C4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E8">
-    <cfRule type="expression" dxfId="4" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="43" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="36">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="44">
       <formula>LEN(TRIM(C7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:A75 A10 A12:A24 A30">
-    <cfRule type="beginsWith" dxfId="0" priority="123" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A10,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="124" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A10,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="125" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A10,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="126" stopIfTrue="1">
-      <formula>LEN(TRIM(A10))&gt;0</formula>
+  <conditionalFormatting sqref="B34:C74 B29:C29 B11:C23 C24:C28 C30:C33 C10">
+    <cfRule type="expression" dxfId="4" priority="135" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="136">
+      <formula>LEN(TRIM(B10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:C75 B10:C10 C11 C31:C34 C25:C29 B12:C24 B30:C30">
-    <cfRule type="expression" dxfId="4" priority="127" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="128">
-      <formula>LEN(TRIM(B10))&gt;0</formula>
+  <conditionalFormatting sqref="A34:A74 A29 A11:A23">
+    <cfRule type="beginsWith" dxfId="0" priority="131" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A11,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="132" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A11,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="133" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A11,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="134" stopIfTrue="1">
+      <formula>LEN(TRIM(A11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
+    <hyperlink ref="B56" r:id="rId1" display="User@12345"/>
     <hyperlink ref="B57" r:id="rId1" display="User@12345"/>
-    <hyperlink ref="B58" r:id="rId1" display="User@12345"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/tests/artifact/data/Mobile-ManageUsers.data.xlsx
+++ b/tests/artifact/data/Mobile-ManageUsers.data.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="225">
+  <si>
+    <t>login.ChangeServer</t>
+  </si>
+  <si>
+    <t>//button[span='Change Server']</t>
+  </si>
   <si>
     <t>login.clickDefault</t>
   </si>
@@ -52,6 +58,30 @@
     <t>//div[@class='toast-body']</t>
   </si>
   <si>
+    <t>Accion.Link</t>
+  </si>
+  <si>
+    <t>//a[@href="#usermenu"]</t>
+  </si>
+  <si>
+    <t>changeOrg</t>
+  </si>
+  <si>
+    <t>//a[text()=' Change Org ']</t>
+  </si>
+  <si>
+    <t>Actions.button</t>
+  </si>
+  <si>
+    <t>//button[text()='Actions']</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>//li/a[span='Log Out']</t>
+  </si>
+  <si>
     <t>Org.locator</t>
   </si>
   <si>
@@ -61,7 +91,7 @@
     <t>Org.Name</t>
   </si>
   <si>
-    <t>TestingProduct</t>
+    <t>OrgNew</t>
   </si>
   <si>
     <t>org.hamburger</t>
@@ -160,25 +190,25 @@
     <t>(//*[@class='row'])[4]//div/h5[text()='Invitations']</t>
   </si>
   <si>
-    <t>mu.Invitations.User</t>
+    <t>headers.Invitations.User</t>
   </si>
   <si>
     <t>(//*[@role='row']/th/div[text()='User'])[2]</t>
   </si>
   <si>
-    <t>mu.Invitations.Role</t>
+    <t>headers.Invitations.Role</t>
   </si>
   <si>
     <t>(//*[@role='row']/th/div[text()='Role'])[2]</t>
   </si>
   <si>
-    <t>mu.Invitations.Status</t>
+    <t>headers.Invitations.Status</t>
   </si>
   <si>
     <t>//*[@role='row']/th[3]/div[text()='Status']</t>
   </si>
   <si>
-    <t>mu.Invitations.Action</t>
+    <t>headers.Invitations.Action</t>
   </si>
   <si>
     <t>//*[@role='row']/th[4]/div[text()='Action']</t>
@@ -214,40 +244,40 @@
     <t>inviteUserName.labelText</t>
   </si>
   <si>
-    <t>(//div[@class='card gkcard mx-auto']//div[2])[1]//fieldset[@class='form-group']/div/legend[text()='Name']</t>
+    <t>//legend[text()='Name']</t>
   </si>
   <si>
     <t>inviteUserRole.labelText</t>
   </si>
   <si>
-    <t>(//div[@class='card gkcard mx-auto']//div[2])[1]//fieldset[@class='form-group']/div/legend[text()='Role']</t>
+    <t>//legend[text()='Role']</t>
   </si>
   <si>
     <t>UserName.Input</t>
   </si>
   <si>
-    <t>(//div[@class='card gkcard mx-auto']//div[2])[1]//fieldset/div/div/div/input[@type='text']</t>
+    <t>//legend[text()='Name']/parent::div/div/div/input</t>
   </si>
   <si>
     <t>Button.inviteUser</t>
   </si>
   <si>
-    <t>//div[@role='group']/div/button</t>
+    <t>//button[span='Invite User']</t>
   </si>
   <si>
     <t>Role.selectBox</t>
   </si>
   <si>
-    <t>//div[@class='card-body']/form/fieldset[2]/div/div/select</t>
+    <t>//legend[text()='Role']/parent::div/div/select</t>
   </si>
   <si>
     <t>InviteUser.Button</t>
   </si>
   <si>
-    <t>In.validate.Button</t>
-  </si>
-  <si>
-    <t>//div[@class='card-body']/form/fieldset/div/div/div/button</t>
+    <t>validate.Button</t>
+  </si>
+  <si>
+    <t>//button[span='Validate']</t>
   </si>
   <si>
     <t>UserName.Message.Text</t>
@@ -256,18 +286,6 @@
     <t>//*[@class='col']//small</t>
   </si>
   <si>
-    <t>UserRole.Input</t>
-  </si>
-  <si>
-    <t>Operator</t>
-  </si>
-  <si>
-    <t>Input.UserRole</t>
-  </si>
-  <si>
-    <t>Godown In Charge</t>
-  </si>
-  <si>
     <t>click.InviteUser</t>
   </si>
   <si>
@@ -277,82 +295,61 @@
     <t>click.checkBox</t>
   </si>
   <si>
-    <t>//div[@class='mb-2']/div/input</t>
+    <t>//label[span=' User not present, Do you want to create a new user? ']/parent::div/input</t>
   </si>
   <si>
     <t>Iu.password.LabelText</t>
   </si>
   <si>
-    <t>//div[@class='card-body']/form/div[2]/fieldset/div/legend[text()='Password']</t>
+    <t>//legend[text()='Password']</t>
   </si>
   <si>
     <t>Iu.password.Input</t>
   </si>
   <si>
-    <t>//div[@class='card-body']/form/div[2]/fieldset/div/div/fieldset/div/div/input</t>
+    <t>//legend[text()='Password']/parent::div/div/descendant::input[@type="password"]</t>
   </si>
   <si>
     <t>Iu.EyeFill.Icon</t>
   </si>
   <si>
-    <t>//div[@class='card-body']/form/div[2]/fieldset/div/div/fieldset/div/div/div/button</t>
+    <t>//button[@class="btn ml-1 btn-light btn-sm"]</t>
   </si>
   <si>
     <t>Iu.CPassword.LabelText</t>
   </si>
   <si>
-    <t>//div[@class='card-body']/form/div[2]/fieldset/div/legend[text()='Confirm Password']</t>
+    <t>//legend[text()='Confirm Password']</t>
   </si>
   <si>
     <t>Iu.CPassword.Input</t>
   </si>
   <si>
-    <t>//div[@class='card-body']/form/div[2]/fieldset[2]/div/div/input</t>
+    <t>//legend[text()='Confirm Password']/parent::div/div/descendant::input[@type="password"]</t>
   </si>
   <si>
     <t>Iu.Question.LabelText</t>
   </si>
   <si>
-    <t>//div[@class='card-body']/form/div[2]/fieldset/div/legend[text()='Question']</t>
+    <t>//legend[text()='Question']</t>
   </si>
   <si>
     <t>Iu.Question.Select.Input</t>
   </si>
   <si>
-    <t>//div[@class='card-body']/form/div[2]/fieldset[3]/div/div/select</t>
+    <t>//legend[text()='Question']/parent::div/div/select</t>
   </si>
   <si>
     <t>Iu.Answer.LabelText</t>
   </si>
   <si>
-    <t>//div[@class='card-body']/form/div[2]/fieldset/div/legend[text()='Answer']</t>
+    <t>//legend[text()='Answer']</t>
   </si>
   <si>
     <t>Iu.Answer.Input</t>
   </si>
   <si>
-    <t>//div[@class='card-body']/form/div[2]/fieldset[4]/div/div/input</t>
-  </si>
-  <si>
-    <t>Iu.Password</t>
-  </si>
-  <si>
-    <t>User@12345</t>
-  </si>
-  <si>
-    <t>Iu.CPassword</t>
-  </si>
-  <si>
-    <t>Iu.Question</t>
-  </si>
-  <si>
-    <t>Your Favourite Place ?</t>
-  </si>
-  <si>
-    <t>Iu.Answer</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
+    <t>//legend[text()='Answer']/parent::div/div/input</t>
   </si>
   <si>
     <t>Iu.Create.Button</t>
@@ -361,7 +358,7 @@
     <t>Iu.Password.Message</t>
   </si>
   <si>
-    <t>//div[@class='card-body']/form/div[2]/fieldset/div/div/fieldset/div/div[text()='Your Password is Strong!'][2]</t>
+    <t>//div[text()='Your Password is Strong!'][2]</t>
   </si>
   <si>
     <t>IU.WarningMessage</t>
@@ -454,7 +451,7 @@
     <t>AdminUser</t>
   </si>
   <si>
-    <t>//tbody/tr[ ]/td[text()='Accion']</t>
+    <t>//h5[text()='Users']/parent::div/table/tbody/tr[ ]/td[text()='Accion']</t>
   </si>
   <si>
     <t>RemoveUser.button</t>
@@ -487,6 +484,12 @@
     <t>//div[@class='toast-body'][contains(text(),'User deletion is not allowed')]</t>
   </si>
   <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Admin,Manager,Operator,InternalAuditor,GodownInCharge</t>
+  </si>
+  <si>
     <t>userrole</t>
   </si>
   <si>
@@ -496,7 +499,196 @@
     <t>NewUser.successmessage</t>
   </si>
   <si>
-    <t>//div[@class='toast-body'][contains(text(),'% has been created and invited Successfully.')]</t>
+    <t>//div[@class='toast-body'][contains(text(),'% has been created &amp; Invited successfully.')]</t>
+  </si>
+  <si>
+    <t>PrimaryGodown.Chk</t>
+  </si>
+  <si>
+    <t>//td[text()='Primary Godown']/parent::tr/td/div/input</t>
+  </si>
+  <si>
+    <t>Welcome.Msg</t>
+  </si>
+  <si>
+    <t>//span[text()='Welcome %!']</t>
+  </si>
+  <si>
+    <t>invitation.srno</t>
+  </si>
+  <si>
+    <t>//tbody/tr/td[1][contains(text(),'1')]</t>
+  </si>
+  <si>
+    <t>invitation.Org</t>
+  </si>
+  <si>
+    <t>//tbody/tr/td[2][contains(text(),' ')]</t>
+  </si>
+  <si>
+    <t>invitation.Role</t>
+  </si>
+  <si>
+    <t>//tbody/tr/td[3][contains(text(),' ')]</t>
+  </si>
+  <si>
+    <t>invitation.Check</t>
+  </si>
+  <si>
+    <t>//*[local-name()='svg'][@aria-label="check circle"]/parent::button[contains(@class,'btn-success btn-sm')]</t>
+  </si>
+  <si>
+    <t>invitation.trash</t>
+  </si>
+  <si>
+    <t>//*[local-name()='svg'][@aria-label="trash"]/parent::button[contains(@class,'btn-danger btn-sm')]</t>
+  </si>
+  <si>
+    <t>invitation.confMsg</t>
+  </si>
+  <si>
+    <t>//div[text()='Accept invitation to organisation: % ?']</t>
+  </si>
+  <si>
+    <t>invitation.RejectionMsg</t>
+  </si>
+  <si>
+    <t>//div[text()='Reject invitation to organisation: % ?']</t>
+  </si>
+  <si>
+    <t>Confirmation.OK</t>
+  </si>
+  <si>
+    <t>//button[@class='btn btn-success']</t>
+  </si>
+  <si>
+    <t>Confirmation.Cancel</t>
+  </si>
+  <si>
+    <t>//button[@class='btn btn-secondary']</t>
+  </si>
+  <si>
+    <t>Confirmation.RejectOK</t>
+  </si>
+  <si>
+    <t>//button[@class="btn btn-danger"]</t>
+  </si>
+  <si>
+    <t>Cancellation.Ok</t>
+  </si>
+  <si>
+    <t>Org.Accepted</t>
+  </si>
+  <si>
+    <t>//tr/td[contains(text(),' ')]/parent::tr/td[@aria-colindex="4"]/button</t>
+  </si>
+  <si>
+    <t>NoOrg.Msg</t>
+  </si>
+  <si>
+    <t>//div/b[text()='You are not part of any organisations yet']</t>
+  </si>
+  <si>
+    <t>NewOrg.RejectedMsg</t>
+  </si>
+  <si>
+    <t>//div[@class="toast-body"][contains(text(),'Invitation to OrgNew organisation has been rejected successfully')]</t>
+  </si>
+  <si>
+    <t>Invitations.RowCount</t>
+  </si>
+  <si>
+    <t>//h5[text()='Invitations']/parent::div/table/tbody/tr</t>
+  </si>
+  <si>
+    <t>Invitations.User</t>
+  </si>
+  <si>
+    <t>//h5[text()='Invitations']/parent::div/table/tbody/tr[ ]/td[1]</t>
+  </si>
+  <si>
+    <t>Invitations.Role</t>
+  </si>
+  <si>
+    <t>//h5[text()='Invitations']/parent::div/table/tbody/tr[ ]/td[2]</t>
+  </si>
+  <si>
+    <t>Invitations.Status</t>
+  </si>
+  <si>
+    <t>//h5[text()='Invitations']/parent::div/table/tbody/tr[ ]/td[3]</t>
+  </si>
+  <si>
+    <t>Invitations.UserName</t>
+  </si>
+  <si>
+    <t>//h5[text()='Invitations']/parent::div/table/tbody/tr[ ]/td[1][text()='%']</t>
+  </si>
+  <si>
+    <t>Users.RowCount</t>
+  </si>
+  <si>
+    <t>//h5[text()='Users']/parent::div/table/tbody/tr</t>
+  </si>
+  <si>
+    <t>Users.UserName</t>
+  </si>
+  <si>
+    <t>//h5[text()='Users']/parent::div/table/tbody/tr[ ]/td[1][text()='%']</t>
+  </si>
+  <si>
+    <t>Users.RemoveButton</t>
+  </si>
+  <si>
+    <t>//h5[text()='Users']/parent::div/table/tbody/tr[%]/td[3]/button[@class="btn btn-danger btn-sm"]</t>
+  </si>
+  <si>
+    <t>Search.Users</t>
+  </si>
+  <si>
+    <t>//input[@placeholder="Search Users"]</t>
+  </si>
+  <si>
+    <t>Searched.User</t>
+  </si>
+  <si>
+    <t>//h5[text()='Users']/parent::div/table/tbody/tr[1]/td[1]</t>
+  </si>
+  <si>
+    <t>ExistingUser.msg</t>
+  </si>
+  <si>
+    <t>//small[span="* Type an existing user's name"]</t>
+  </si>
+  <si>
+    <t>DeleteUser</t>
+  </si>
+  <si>
+    <t>//h5[text()='Invitations']/parent::div/table/tbody/tr[1]/td[4]/*[local-name()='svg' and @role='button']//*[local-name()='path'][1]</t>
+  </si>
+  <si>
+    <t>CancellationMsg</t>
+  </si>
+  <si>
+    <t>//div[@class="toast-body"][contains(text(),'cancelled successfully')]</t>
+  </si>
+  <si>
+    <t>Download.button</t>
+  </si>
+  <si>
+    <t>//button[@aria-label="Download"]</t>
+  </si>
+  <si>
+    <t>Windows.SavesAs.Edit</t>
+  </si>
+  <si>
+    <t>//*[@ClassName="Edit" and @ControlType="ControlType.Edit" and @Name="File name:"]</t>
+  </si>
+  <si>
+    <t>Windows.SavesAs.SaveButton</t>
+  </si>
+  <si>
+    <t>//*[@ClassName="Button" and @ControlType="ControlType.Button" and @Name="Save"]</t>
   </si>
 </sst>
 </file>
@@ -509,7 +701,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,21 +741,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1032,137 +1218,137 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1170,6 +1356,12 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1186,12 +1378,21 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1248,27 +1449,13 @@
   <dxfs count="23">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="1"/>
-        <strike val="0"/>
-        <color theme="0" tint="-0.349986266670736"/>
+        <b val="1"/>
+        <i val="0"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.249946592608417"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.599963377788629"/>
+          <bgColor theme="0" tint="-0.14996795556505"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1288,11 +1475,25 @@
       <font>
         <b val="1"/>
         <i val="0"/>
-        <color theme="1"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.249946592608417"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14996795556505"/>
+          <bgColor theme="4" tint="0.599963377788629"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="1"/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.349986266670736"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1803,10 +2004,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B73" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B101" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117:B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
@@ -1815,494 +2016,489 @@
     <col min="2" max="2" width="156.818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15.5" spans="1:2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="16" customHeight="1" spans="1:3">
-      <c r="A10" s="2" t="s">
+    <row r="10" ht="16" spans="1:2">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" ht="16" spans="1:3">
-      <c r="A11" s="5" t="s">
+    </row>
+    <row r="11" s="2" customFormat="1" ht="16" spans="1:2">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" ht="16" spans="1:3">
-      <c r="A12" s="5" t="s">
+    </row>
+    <row r="12" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" ht="16" spans="1:3">
-      <c r="A13" s="5" t="s">
+    </row>
+    <row r="13" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" ht="16" spans="1:3">
-      <c r="A14" s="5" t="s">
+    </row>
+    <row r="14" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" ht="16" spans="1:3">
-      <c r="A15" s="5" t="s">
+    </row>
+    <row r="15" ht="16" customHeight="1" spans="1:3">
+      <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" ht="16" spans="1:3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" ht="16" spans="1:3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" ht="16" spans="1:3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" ht="16" spans="1:3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" ht="16" spans="1:3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" ht="16" spans="1:3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="1"/>
     </row>
     <row r="22" ht="16" spans="1:3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="1"/>
     </row>
     <row r="23" ht="16" spans="1:3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="1"/>
     </row>
     <row r="24" ht="16" spans="1:3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" ht="16" spans="1:3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" ht="16" spans="1:3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="1"/>
     </row>
     <row r="27" ht="16" spans="1:3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="1"/>
     </row>
     <row r="28" ht="16" spans="1:3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" ht="16" spans="1:3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" ht="16" spans="1:3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>41</v>
+      <c r="B30" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" ht="16" spans="1:3">
-      <c r="A31" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>43</v>
+      <c r="A31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C31" s="1"/>
     </row>
     <row r="32" ht="16" spans="1:3">
-      <c r="A32" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C32" s="1"/>
     </row>
     <row r="33" ht="16" spans="1:3">
-      <c r="A33" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>62</v>
+      <c r="A33" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="C33" s="1"/>
     </row>
     <row r="34" ht="16" spans="1:3">
-      <c r="A34" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>64</v>
+      <c r="A34" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="C34" s="1"/>
     </row>
     <row r="35" ht="16" spans="1:3">
-      <c r="A35" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>66</v>
+      <c r="A35" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" ht="16" spans="1:3">
-      <c r="A36" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>68</v>
+      <c r="A36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="C36" s="1"/>
     </row>
     <row r="37" ht="16" spans="1:3">
-      <c r="A37" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="7" t="s">
         <v>70</v>
       </c>
+      <c r="B37" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="C37" s="1"/>
     </row>
     <row r="38" ht="16" spans="1:3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C38" s="1"/>
     </row>
     <row r="39" ht="16" spans="1:3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" ht="16" spans="1:3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>7</v>
+      <c r="B40" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" ht="16" spans="1:3">
-      <c r="A41" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="7" t="s">
         <v>77</v>
       </c>
+      <c r="B41" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="C41" s="1"/>
     </row>
     <row r="42" ht="16" spans="1:3">
-      <c r="A42" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="7" t="s">
         <v>79</v>
       </c>
+      <c r="B42" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="C42" s="1"/>
     </row>
     <row r="43" ht="16" spans="1:3">
-      <c r="A43" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="B43" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="C43" s="1"/>
     </row>
     <row r="44" ht="16" spans="1:3">
-      <c r="A44" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="4" t="s">
+      <c r="A44" s="7" t="s">
         <v>83</v>
       </c>
+      <c r="B44" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="C44" s="1"/>
     </row>
     <row r="45" ht="16" spans="1:3">
-      <c r="A45" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="4" t="s">
+      <c r="A45" s="7" t="s">
         <v>85</v>
       </c>
+      <c r="B45" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="C45" s="1"/>
     </row>
     <row r="46" ht="16" spans="1:3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="6" t="s">
         <v>87</v>
       </c>
       <c r="C46" s="1"/>
     </row>
     <row r="47" ht="16" spans="1:3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C47" s="1"/>
     </row>
     <row r="48" ht="16" spans="1:3">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="6" t="s">
         <v>91</v>
       </c>
       <c r="C48" s="1"/>
     </row>
     <row r="49" ht="16" spans="1:3">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="6" t="s">
         <v>93</v>
       </c>
       <c r="C49" s="1"/>
     </row>
     <row r="50" ht="16" spans="1:3">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C50" s="1"/>
     </row>
     <row r="51" ht="16" spans="1:3">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C51" s="1"/>
     </row>
     <row r="52" ht="16" spans="1:3">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="6" t="s">
         <v>99</v>
       </c>
       <c r="C52" s="1"/>
     </row>
     <row r="53" ht="16" spans="1:3">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C53" s="1"/>
     </row>
     <row r="54" ht="16" spans="1:3">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="6" t="s">
         <v>103</v>
       </c>
       <c r="C54" s="1"/>
     </row>
     <row r="55" ht="16" spans="1:3">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="6" t="s">
         <v>105</v>
       </c>
       <c r="C55" s="1"/>
     </row>
     <row r="56" ht="16" spans="1:3">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -2311,610 +2507,1187 @@
       <c r="C56" s="1"/>
     </row>
     <row r="57" ht="16" spans="1:3">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C57" s="1"/>
     </row>
     <row r="58" ht="16" spans="1:3">
-      <c r="A58" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B58" s="4" t="s">
+      <c r="A58" s="7" t="s">
         <v>110</v>
       </c>
+      <c r="B58" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="C58" s="1"/>
     </row>
     <row r="59" ht="16" spans="1:3">
-      <c r="A59" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B59" s="4" t="s">
+      <c r="A59" s="7" t="s">
         <v>112</v>
       </c>
+      <c r="B59" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="C59" s="1"/>
     </row>
     <row r="60" ht="16" spans="1:3">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>85</v>
+      <c r="B60" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="C60" s="1"/>
     </row>
     <row r="61" ht="16" spans="1:3">
-      <c r="A61" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B61" s="4" t="s">
+      <c r="A61" s="7" t="s">
         <v>115</v>
       </c>
+      <c r="B61" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="C61" s="1"/>
     </row>
     <row r="62" ht="16" spans="1:3">
-      <c r="A62" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B62" s="4" t="s">
+      <c r="A62" s="7" t="s">
         <v>117</v>
       </c>
+      <c r="B62" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="C62" s="1"/>
     </row>
     <row r="63" ht="16" spans="1:3">
-      <c r="A63" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B63" s="4" t="s">
+      <c r="A63" s="7" t="s">
         <v>119</v>
       </c>
+      <c r="B63" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="C63" s="1"/>
     </row>
     <row r="64" ht="16" spans="1:3">
-      <c r="A64" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B64" s="4" t="s">
+      <c r="A64" s="7" t="s">
         <v>121</v>
       </c>
+      <c r="B64" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="C64" s="1"/>
     </row>
     <row r="65" ht="16" spans="1:3">
-      <c r="A65" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" s="4" t="s">
+      <c r="A65" s="7" t="s">
         <v>123</v>
       </c>
+      <c r="B65" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="C65" s="1"/>
     </row>
     <row r="66" ht="16" spans="1:3">
-      <c r="A66" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B66" s="4" t="s">
+      <c r="A66" s="7" t="s">
         <v>125</v>
       </c>
+      <c r="B66" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="C66" s="1"/>
     </row>
     <row r="67" ht="16" spans="1:3">
-      <c r="A67" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B67" s="4" t="s">
+      <c r="A67" s="7" t="s">
         <v>127</v>
       </c>
+      <c r="B67" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="C67" s="1"/>
     </row>
     <row r="68" ht="16" spans="1:3">
-      <c r="A68" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B68" s="4" t="s">
+      <c r="A68" s="7" t="s">
         <v>129</v>
       </c>
+      <c r="B68" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="C68" s="1"/>
     </row>
     <row r="69" ht="16" spans="1:3">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>41</v>
+      <c r="B69" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="C69" s="1"/>
     </row>
     <row r="70" ht="16" spans="1:3">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>43</v>
+      <c r="B70" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C70" s="1"/>
     </row>
     <row r="71" ht="16" spans="1:3">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>45</v>
+      <c r="B71" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C71" s="1"/>
     </row>
     <row r="72" ht="16" spans="1:3">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>62</v>
+      <c r="B72" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C72" s="1"/>
     </row>
     <row r="73" ht="16" spans="1:3">
-      <c r="A73" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B73" s="4" t="s">
+      <c r="A73" s="7" t="s">
         <v>135</v>
       </c>
+      <c r="B73" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" ht="16" spans="1:3">
-      <c r="A74" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B74" s="4" t="s">
+    <row r="74" ht="16" spans="1:2">
+      <c r="A74" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="1"/>
+      <c r="B74" s="6" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="75" ht="16" spans="1:2">
-      <c r="A75" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="A75" s="7" t="s">
         <v>139</v>
       </c>
+      <c r="B75" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="76" ht="16" spans="1:2">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B76" t="s">
-        <v>11</v>
+      <c r="B76" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="77" ht="16" spans="1:2">
-      <c r="A77" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="A77" s="7" t="s">
         <v>142</v>
       </c>
+      <c r="B77" s="6" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="78" ht="16" spans="1:2">
-      <c r="A78" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="A78" s="7" t="s">
         <v>144</v>
       </c>
+      <c r="B78" s="6" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="79" ht="16" spans="1:2">
-      <c r="A79" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="A79" s="7" t="s">
         <v>146</v>
       </c>
+      <c r="B79" s="6" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="80" ht="16" spans="1:2">
-      <c r="A80" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="A80" s="7" t="s">
         <v>148</v>
       </c>
+      <c r="B80" s="6" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="81" ht="16" spans="1:2">
-      <c r="A81" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B81" s="7" t="s">
+      <c r="A81" s="7" t="s">
         <v>150</v>
       </c>
+      <c r="B81" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="82" ht="16" spans="1:2">
-      <c r="A82" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B82" s="7" t="s">
+      <c r="A82" s="7" t="s">
         <v>152</v>
       </c>
+      <c r="B82" s="6" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="83" ht="16" spans="1:2">
-      <c r="A83" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="A83" s="7" t="s">
         <v>154</v>
       </c>
+      <c r="B83" s="6" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="84" ht="16" spans="1:2">
-      <c r="A84" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="A84" s="7" t="s">
         <v>156</v>
       </c>
+      <c r="B84" s="6" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="85" ht="16" spans="1:2">
-      <c r="A85" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="A85" s="7" t="s">
         <v>158</v>
       </c>
+      <c r="B85" s="6" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="86" ht="16" spans="1:2">
-      <c r="A86" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="A86" s="7" t="s">
         <v>160</v>
       </c>
+      <c r="B86" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" ht="16" spans="1:2">
+      <c r="A87" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" ht="16" spans="1:2">
+      <c r="A88" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" ht="16" spans="1:2">
+      <c r="A89" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" ht="16" spans="1:2">
+      <c r="A90" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" ht="16" spans="1:2">
+      <c r="A91" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" ht="16" spans="1:2">
+      <c r="A92" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" ht="16" spans="1:2">
+      <c r="A93" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="94" ht="16" spans="1:2">
+      <c r="A94" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" ht="16" spans="1:2">
+      <c r="A95" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="96" ht="16" spans="1:2">
+      <c r="A96" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="97" ht="16" spans="1:2">
+      <c r="A97" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="98" ht="16" spans="1:2">
+      <c r="A98" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="99" ht="16" spans="1:2">
+      <c r="A99" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="100" ht="16" spans="1:2">
+      <c r="A100" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="101" ht="16" spans="1:2">
+      <c r="A101" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="102" ht="16" spans="1:2">
+      <c r="A102" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="103" ht="16" spans="1:2">
+      <c r="A103" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="104" ht="16" spans="1:2">
+      <c r="A104" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="105" ht="16" spans="1:2">
+      <c r="A105" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="106" ht="16" spans="1:2">
+      <c r="A106" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107" ht="16" spans="1:2">
+      <c r="A107" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="108" ht="16" spans="1:2">
+      <c r="A108" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="109" ht="16" spans="1:2">
+      <c r="A109" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="110" ht="16" spans="1:2">
+      <c r="A110" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="111" ht="16" spans="1:2">
+      <c r="A111" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="112" ht="16" spans="1:2">
+      <c r="A112" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="113" ht="16" spans="1:2">
+      <c r="A113" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="114" ht="32" spans="1:2">
+      <c r="A114" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="115" ht="16" spans="1:2">
+      <c r="A115" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="116" ht="16" spans="1:2">
+      <c r="A116" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="117" s="3" customFormat="1" ht="16" spans="1:2">
+      <c r="A117" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="118" s="3" customFormat="1" ht="16" spans="1:2">
+      <c r="A118" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>224</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="beginsWith" dxfId="0" priority="45" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A6,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="46" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A6,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="47" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A6,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="48" stopIfTrue="1">
-      <formula>LEN(TRIM(A6))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
+  <conditionalFormatting sqref="A1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="42" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="40" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="39" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A1,LEN("//"))="//"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="beginsWith" dxfId="3" priority="139" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A14,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="140" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A14,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="141" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A14,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="142" stopIfTrue="1">
+      <formula>LEN(TRIM(A14))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:E14">
+    <cfRule type="expression" dxfId="4" priority="143" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="144">
+      <formula>LEN(TRIM(B14))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="beginsWith" dxfId="3" priority="221" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A15,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="222" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A15,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="223" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A15,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="224" stopIfTrue="1">
+      <formula>LEN(TRIM(A15))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="expression" dxfId="4" priority="225" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="226">
+      <formula>LEN(TRIM(B15))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74">
+    <cfRule type="beginsWith" dxfId="3" priority="175" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A74,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="176" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A74,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="177" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A74,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="178" stopIfTrue="1">
+      <formula>LEN(TRIM(A74))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75">
+    <cfRule type="beginsWith" dxfId="3" priority="171" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A75,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="172" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A75,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="173" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A75,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="174" stopIfTrue="1">
+      <formula>LEN(TRIM(A75))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="beginsWith" dxfId="3" priority="167" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A76,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="168" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A76,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="169" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A76,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="170" stopIfTrue="1">
+      <formula>LEN(TRIM(A76))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79">
+    <cfRule type="beginsWith" dxfId="3" priority="121" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A79,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="122" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A79,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="123" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A79,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="124" stopIfTrue="1">
+      <formula>LEN(TRIM(A79))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85">
+    <cfRule type="beginsWith" dxfId="3" priority="113" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A85,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="114" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A85,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="115" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A85,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="116" stopIfTrue="1">
+      <formula>LEN(TRIM(A85))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A86">
+    <cfRule type="beginsWith" dxfId="3" priority="109" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A86,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="110" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A86,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="111" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A86,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="112" stopIfTrue="1">
+      <formula>LEN(TRIM(A86))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87">
+    <cfRule type="beginsWith" dxfId="3" priority="103" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A87,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="104" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A87,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="105" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A87,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="106" stopIfTrue="1">
+      <formula>LEN(TRIM(A87))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A88">
+    <cfRule type="beginsWith" dxfId="3" priority="99" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A88,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="100" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A88,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="101" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A88,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="102" stopIfTrue="1">
+      <formula>LEN(TRIM(A88))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100">
+    <cfRule type="beginsWith" dxfId="3" priority="83" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A100,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="84" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A100,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="85" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A100,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="86" stopIfTrue="1">
+      <formula>LEN(TRIM(A100))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B108">
+    <cfRule type="expression" dxfId="4" priority="59" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="60">
+      <formula>LEN(TRIM(B108))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B109">
+    <cfRule type="expression" dxfId="4" priority="57" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="58">
+      <formula>LEN(TRIM(B109))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110">
+    <cfRule type="beginsWith" dxfId="3" priority="47" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A110,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="48" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A110,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="49" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A110,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="50" stopIfTrue="1">
+      <formula>LEN(TRIM(A110))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B110">
+    <cfRule type="expression" dxfId="4" priority="51" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="52">
+      <formula>LEN(TRIM(B110))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A111">
+    <cfRule type="beginsWith" dxfId="3" priority="31" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A111,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="32" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A111,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="33" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A111,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="34" stopIfTrue="1">
+      <formula>LEN(TRIM(A111))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B111">
     <cfRule type="expression" dxfId="4" priority="29" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="5" priority="30">
-      <formula>LEN(TRIM(B6))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:E6">
-    <cfRule type="expression" dxfId="4" priority="49" stopIfTrue="1">
+      <formula>LEN(TRIM(B111))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A115">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="20" stopIfTrue="1">
+      <formula>LEN(TRIM(A115))&gt;0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="19" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A115,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A115,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="17" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A115,LEN("//"))="//"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B115">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="22">
+      <formula>LEN(TRIM(B115))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="21" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="50">
-      <formula>LEN(TRIM(C6))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A9,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A9,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A9,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="34" stopIfTrue="1">
-      <formula>LEN(TRIM(A9))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:E9">
-    <cfRule type="expression" dxfId="4" priority="35" stopIfTrue="1">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A116">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="12" stopIfTrue="1">
+      <formula>LEN(TRIM(A116))&gt;0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A116,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A116,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="9" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A116,LEN("//"))="//"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B116">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="8">
+      <formula>LEN(TRIM(B116))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="36">
-      <formula>LEN(TRIM(B9))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="beginsWith" dxfId="0" priority="113" stopIfTrue="1" operator="equal" text="//">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A4">
+    <cfRule type="beginsWith" dxfId="3" priority="129" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A2,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="130" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A2,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="131" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A2,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="132" stopIfTrue="1">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:A6">
+    <cfRule type="beginsWith" dxfId="3" priority="159" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A5,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="160" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A5,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="161" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A5,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="162" stopIfTrue="1">
+      <formula>LEN(TRIM(A5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:A9">
+    <cfRule type="beginsWith" dxfId="3" priority="153" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A7,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="154" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A7,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="155" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A7,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="156" stopIfTrue="1">
+      <formula>LEN(TRIM(A7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:A11">
+    <cfRule type="beginsWith" dxfId="3" priority="43" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A10,LEN("//"))="//"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="114" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="2" priority="44" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A10,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="115" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="1" priority="45" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A10,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="116" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="46" stopIfTrue="1">
       <formula>LEN(TRIM(A10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="4" priority="117" stopIfTrue="1">
+  <conditionalFormatting sqref="A12:A13">
+    <cfRule type="beginsWith" dxfId="3" priority="145" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A12,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="146" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A12,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="147" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A12,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="148" stopIfTrue="1">
+      <formula>LEN(TRIM(A12))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:A33">
+    <cfRule type="beginsWith" dxfId="3" priority="203" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A29,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="204" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A29,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="205" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A29,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="206" stopIfTrue="1">
+      <formula>LEN(TRIM(A29))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:A38">
+    <cfRule type="beginsWith" dxfId="3" priority="197" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A35,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="198" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A35,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="199" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A35,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="200" stopIfTrue="1">
+      <formula>LEN(TRIM(A35))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77:A78">
+    <cfRule type="beginsWith" dxfId="3" priority="125" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A77,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="126" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A77,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="127" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A77,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="128" stopIfTrue="1">
+      <formula>LEN(TRIM(A77))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80:A84">
+    <cfRule type="beginsWith" dxfId="3" priority="117" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A80,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="118" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A80,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="119" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A80,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="120" stopIfTrue="1">
+      <formula>LEN(TRIM(A80))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A89:A93">
+    <cfRule type="beginsWith" dxfId="3" priority="95" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A89,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="96" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A89,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="97" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A89,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="98" stopIfTrue="1">
+      <formula>LEN(TRIM(A89))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94:A95">
+    <cfRule type="beginsWith" dxfId="3" priority="91" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A94,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="92" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A94,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="93" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A94,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="94" stopIfTrue="1">
+      <formula>LEN(TRIM(A94))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96:A99">
+    <cfRule type="beginsWith" dxfId="3" priority="87" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A96,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="88" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A96,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="89" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A96,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="90" stopIfTrue="1">
+      <formula>LEN(TRIM(A96))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101:A102">
+    <cfRule type="beginsWith" dxfId="3" priority="67" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A101,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="68" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A101,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="69" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A101,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="70" stopIfTrue="1">
+      <formula>LEN(TRIM(A101))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103:A107">
+    <cfRule type="beginsWith" dxfId="3" priority="63" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A103,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="64" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A103,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="65" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A103,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="66" stopIfTrue="1">
+      <formula>LEN(TRIM(A103))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A108:A109">
+    <cfRule type="beginsWith" dxfId="3" priority="53" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A108,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="54" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A108,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="55" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A108,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="56" stopIfTrue="1">
+      <formula>LEN(TRIM(A108))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A112:A114">
+    <cfRule type="beginsWith" dxfId="3" priority="25" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A112,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="26" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A112,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="27" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A112,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="28" stopIfTrue="1">
+      <formula>LEN(TRIM(A112))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117:A118">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>LEN(TRIM(A117))&gt;0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A117,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A117,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="3" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A117,LEN("//"))="//"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B4">
+    <cfRule type="expression" dxfId="4" priority="133" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="118">
-      <formula>LEN(TRIM(B10))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75">
-    <cfRule type="beginsWith" dxfId="0" priority="67" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A75,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="68" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A75,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="69" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A75,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="70" stopIfTrue="1">
-      <formula>LEN(TRIM(A75))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
-    <cfRule type="beginsWith" dxfId="0" priority="63" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A76,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="64" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A76,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="65" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A76,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="66" stopIfTrue="1">
-      <formula>LEN(TRIM(A76))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="beginsWith" dxfId="0" priority="59" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A77,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="60" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A77,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="61" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A77,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="62" stopIfTrue="1">
-      <formula>LEN(TRIM(A77))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
-    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A80,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A80,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A80,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="16" stopIfTrue="1">
-      <formula>LEN(TRIM(A80))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85">
-    <cfRule type="beginsWith" dxfId="0" priority="5" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A85,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="6" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A85,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A85,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="8" stopIfTrue="1">
-      <formula>LEN(TRIM(A85))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A86">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4" stopIfTrue="1">
-      <formula>LEN(TRIM(A86))&gt;0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A86,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A86,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A86,LEN("//"))="//"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A3">
-    <cfRule type="beginsWith" dxfId="0" priority="21" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A1,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="22" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="23" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="24" stopIfTrue="1">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A5">
-    <cfRule type="beginsWith" dxfId="0" priority="51" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A4,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="52" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A4,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="53" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A4,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="54" stopIfTrue="1">
-      <formula>LEN(TRIM(A4))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:A8">
-    <cfRule type="beginsWith" dxfId="0" priority="37" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A7,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A7,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A7,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="40" stopIfTrue="1">
-      <formula>LEN(TRIM(A7))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:A28">
-    <cfRule type="beginsWith" dxfId="0" priority="95" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A24,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="96" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A24,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="97" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A24,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="98" stopIfTrue="1">
-      <formula>LEN(TRIM(A24))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:A33">
-    <cfRule type="beginsWith" dxfId="0" priority="89" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A30,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="90" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A30,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="91" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A30,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="92" stopIfTrue="1">
-      <formula>LEN(TRIM(A30))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78:A79">
-    <cfRule type="beginsWith" dxfId="0" priority="17" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A78,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="18" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A78,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="19" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A78,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="20" stopIfTrue="1">
-      <formula>LEN(TRIM(A78))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81:A84">
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A81,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="10" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A81,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="11" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A81,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="12" stopIfTrue="1">
-      <formula>LEN(TRIM(A81))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="expression" dxfId="4" priority="25" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="134">
+      <formula>LEN(TRIM(B2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B6">
+    <cfRule type="expression" dxfId="4" priority="163" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="26">
-      <formula>LEN(TRIM(B1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B5">
-    <cfRule type="expression" dxfId="4" priority="55" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="164">
+      <formula>LEN(TRIM(B5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:B9">
+    <cfRule type="expression" dxfId="4" priority="137" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="56">
-      <formula>LEN(TRIM(B4))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B8">
-    <cfRule type="expression" dxfId="4" priority="41" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="138">
+      <formula>LEN(TRIM(B7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B13">
+    <cfRule type="expression" dxfId="4" priority="149" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="42">
-      <formula>LEN(TRIM(B7))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B28">
-    <cfRule type="expression" dxfId="4" priority="99" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="150">
+      <formula>LEN(TRIM(B12))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:B33">
+    <cfRule type="expression" dxfId="4" priority="207" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="100">
-      <formula>LEN(TRIM(B24))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:B33">
-    <cfRule type="expression" dxfId="4" priority="93" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="208">
+      <formula>LEN(TRIM(B29))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:B38">
+    <cfRule type="expression" dxfId="4" priority="201" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="94">
-      <formula>LEN(TRIM(B30))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:E3">
-    <cfRule type="expression" dxfId="4" priority="27" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="202">
+      <formula>LEN(TRIM(B35))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74:B86">
+    <cfRule type="expression" dxfId="4" priority="107" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="28">
-      <formula>LEN(TRIM(C1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:E5">
-    <cfRule type="expression" dxfId="4" priority="57" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="108">
+      <formula>LEN(TRIM(B74))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B101:B107">
+    <cfRule type="expression" dxfId="4" priority="61" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="58">
-      <formula>LEN(TRIM(C4))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:E8">
-    <cfRule type="expression" dxfId="4" priority="43" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="62">
+      <formula>LEN(TRIM(B101))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B112:B114">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="24">
+      <formula>LEN(TRIM(B112))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="23" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="44">
-      <formula>LEN(TRIM(C7))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:C74 B29:C29 B11:C23 C24:C28 C30:C33 C10">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B117:B118">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="2">
+      <formula>LEN(TRIM(B117))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:E4">
     <cfRule type="expression" dxfId="4" priority="135" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="5" priority="136">
+      <formula>LEN(TRIM(C2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:E6">
+    <cfRule type="expression" dxfId="4" priority="165" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="166">
+      <formula>LEN(TRIM(C5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:E9">
+    <cfRule type="expression" dxfId="4" priority="157" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="158">
+      <formula>LEN(TRIM(C7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B87:B100 B10:B11">
+    <cfRule type="expression" dxfId="4" priority="71" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="72">
       <formula>LEN(TRIM(B10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:A74 A29 A11:A23">
-    <cfRule type="beginsWith" dxfId="0" priority="131" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A11,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="132" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A11,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="133" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A11,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="134" stopIfTrue="1">
-      <formula>LEN(TRIM(A11))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="B56" r:id="rId1" display="User@12345"/>
-    <hyperlink ref="B57" r:id="rId1" display="User@12345"/>
-  </hyperlinks>
+  <conditionalFormatting sqref="C12:E13">
+    <cfRule type="expression" dxfId="4" priority="151" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="152">
+      <formula>LEN(TRIM(C12))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:C73 B34:C34 C35:C38 C29:C33 B16:C28 C15">
+    <cfRule type="expression" dxfId="4" priority="243" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="244">
+      <formula>LEN(TRIM(B15))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:A73 A16:A28 A34">
+    <cfRule type="beginsWith" dxfId="3" priority="239" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A16,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="240" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A16,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="241" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A16,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="242" stopIfTrue="1">
+      <formula>LEN(TRIM(A16))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/tests/artifact/data/Mobile-ManageUsers.data.xlsx
+++ b/tests/artifact/data/Mobile-ManageUsers.data.xlsx
@@ -91,7 +91,7 @@
     <t>Org.Name</t>
   </si>
   <si>
-    <t>OrgNew</t>
+    <t>TestOrg962</t>
   </si>
   <si>
     <t>org.hamburger</t>
@@ -1348,7 +1348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1388,10 +1388,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2006,8 +2002,8 @@
   <sheetPr/>
   <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B101" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117:B118"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
@@ -3004,7 +3000,7 @@
       </c>
     </row>
     <row r="117" s="3" customFormat="1" ht="16" spans="1:2">
-      <c r="A117" s="11" t="s">
+      <c r="A117" s="4" t="s">
         <v>221</v>
       </c>
       <c r="B117" s="9" t="s">
@@ -3012,7 +3008,7 @@
       </c>
     </row>
     <row r="118" s="3" customFormat="1" ht="16" spans="1:2">
-      <c r="A118" s="11" t="s">
+      <c r="A118" s="4" t="s">
         <v>223</v>
       </c>
       <c r="B118" s="9" t="s">
